--- a/Turma Maio 2017/Aula 3/Se de IMC.xlsx
+++ b/Turma Maio 2017/Aula 3/Se de IMC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -790,7 +790,10 @@
       <c r="D8" s="5">
         <v>55.3</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <f t="shared" ref="E8:E16" si="0">D8/C8^2</f>
+        <v>21.334053470159326</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
@@ -807,7 +810,10 @@
       <c r="D9" s="5">
         <v>75.900000000000006</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>30.403781445281201</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
@@ -824,7 +830,10 @@
       <c r="D10" s="5">
         <v>46.2</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>19.996537396121884</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
@@ -841,7 +850,10 @@
       <c r="D11" s="5">
         <v>75.099999999999994</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>24.805126172545908</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
@@ -858,7 +870,10 @@
       <c r="D12" s="5">
         <v>55.7</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>18.61071201844365</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
@@ -875,7 +890,10 @@
       <c r="D13" s="5">
         <v>89.9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>25.985663082437274</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
     </row>
@@ -892,7 +910,10 @@
       <c r="D14" s="5">
         <v>90.5</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>24.807434006743236</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
     </row>
@@ -909,7 +930,10 @@
       <c r="D15" s="5">
         <v>85.5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>25.81209998792416</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
@@ -926,7 +950,10 @@
       <c r="D16" s="5">
         <v>110.6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>40.624426078971538</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>

--- a/Turma Maio 2017/Aula 3/Se de IMC.xlsx
+++ b/Turma Maio 2017/Aula 3/Se de IMC.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan3" sheetId="3" r:id="rId1"/>
+    <sheet name="SE, E, OU" sheetId="3" r:id="rId1"/>
+    <sheet name="REF ABSOLUTA MISTA E RELATIVA" sheetId="6" r:id="rId2"/>
+    <sheet name="TAB VERDADE E e OU" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Nome</t>
   </si>
@@ -94,13 +96,87 @@
   </si>
   <si>
     <t>Sim Precisa de Regime</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>menino</t>
+  </si>
+  <si>
+    <t>menina</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>Teste 2</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>camisa</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>pulseira</t>
+  </si>
+  <si>
+    <t>Total Dolar</t>
+  </si>
+  <si>
+    <t>Valor Em Reais</t>
+  </si>
+  <si>
+    <t>Cotação Dolar</t>
+  </si>
+  <si>
+    <t>Cotação Euro</t>
+  </si>
+  <si>
+    <t>Cotação Peso</t>
+  </si>
+  <si>
+    <t>REFERENCIA RELATIVA</t>
+  </si>
+  <si>
+    <t>REFERENCIA ABSOLUTA</t>
+  </si>
+  <si>
+    <t>REFERENCIA MISTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-540A]#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,6 +193,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,11 +246,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -168,6 +286,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,8 +299,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -198,13 +333,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -246,13 +381,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -294,16 +429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>567674</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337487</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -333,8 +468,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8387699" y="714375"/>
-          <a:ext cx="2270776" cy="1257299"/>
+          <a:off x="6195362" y="368300"/>
+          <a:ext cx="2277126" cy="1241424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,345 +812,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="J5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>32</v>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="5">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
         <v>1.79</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>90</v>
       </c>
-      <c r="E7" s="3">
-        <f>D7/C7^2</f>
+      <c r="F7" s="3">
+        <f>E7/D7^2</f>
         <v>28.089010954714272</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="str">
+        <f>IF(OR(AND(B7="menino",C7&lt;=20),AND(B7="menina",C7&lt;=20)),"Jovem","Adulto")</f>
+        <v>Jovem</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f>IF(AND(B7="menina",C7&lt;=20),"Jovem","Não atende a logia")</f>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" ref="I7:I16" si="0">IF(F7&lt;=19,"Normal",IF(F7&lt;=25,"Sobrepeso","Obeso"))</f>
+        <v>Obeso</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IF(I7=$C$20,$D$20,IF(I7=$C$21,$D$21,$D$22))</f>
+        <v>Sim Precisa de Regime</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
         <v>25</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>1.61</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>55.3</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" ref="E8:E16" si="0">D8/C8^2</f>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F16" si="1">E8/D8^2</f>
         <v>21.334053470159326</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="str">
+        <f t="shared" ref="G8:G16" si="2">IF(OR(AND(B8="menino",C8&lt;=20),AND(B8="menina",C8&lt;=20)),"Jovem","Adulto")</f>
+        <v>Adulto</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" ref="H8:H16" si="3">IF(AND(B8="menina",C8&lt;=20),"Jovem","Não atende a logia")</f>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sobrepeso</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" ref="J8:J16" si="4">IF(I8=$C$20,$D$20,IF(I8=$C$21,$D$21,$D$22))</f>
+        <v>Um regiminho é bom!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5">
         <v>43</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>1.58</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>75.900000000000006</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>30.403781445281201</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>30.403781445281201</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Obeso</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Sim Precisa de Regime</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>1.52</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>46.2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>19.996537396121884</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Jovem</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Jovem</v>
+      </c>
+      <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>19.996537396121884</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Sobrepeso</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Um regiminho é bom!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="5">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
         <v>1.74</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>75.099999999999994</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>24.805126172545908</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>24.805126172545908</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Sobrepeso</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Um regiminho é bom!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>1.73</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>55.7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>18.61071201844365</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Jovem</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>18.61071201844365</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Normal</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Não Precisa de Regime</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
         <v>38</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>1.86</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>89.9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>25.985663082437274</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>25.985663082437274</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Obeso</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Sim Precisa de Regime</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
         <v>23</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>1.91</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>90.5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>24.807434006743236</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>24.807434006743236</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Sobrepeso</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Um regiminho é bom!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
         <v>45</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>1.82</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>85.5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>25.81209998792416</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>25.81209998792416</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Obeso</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Sim Precisa de Regime</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
         <v>56</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>1.65</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>110.6</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>40.624426078971538</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Não atende a logia</v>
+      </c>
+      <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>40.624426078971538</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Obeso</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Sim Precisa de Regime</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>30</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F22"/>
+      <c r="I22"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -1023,4 +1360,585 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B3*A3</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C6" si="0">B4*A4</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f>B7*A7</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <f>B9*B10</f>
+        <v>400</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="1">C9*C10</f>
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="7">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9">
+        <v>400</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <f>C17*B17</f>
+        <v>400</v>
+      </c>
+      <c r="E17" s="8">
+        <f>D17*$E$15</f>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" ref="D18:D20" si="2">C18*B18</f>
+        <v>4000</v>
+      </c>
+      <c r="E18" s="8">
+        <f>D18*$E$15</f>
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9">
+        <v>300</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19:E21" si="3">D19*$E$15</f>
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="3"/>
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9">
+        <f>C21*B21</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="F26">
+        <v>4.5</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="9">
+        <v>400</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <f>C28*B28</f>
+        <v>400</v>
+      </c>
+      <c r="E28" s="8">
+        <f>$D28*E$26</f>
+        <v>1260</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:G28" si="4">$D28*F$26</f>
+        <v>1800</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="9">
+        <v>200</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" ref="D29:D31" si="5">C29*B29</f>
+        <v>4000</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" ref="E29:G32" si="6">$D29*E$26</f>
+        <v>12600</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>18000</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="9">
+        <v>300</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="6"/>
+        <v>2835</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="6"/>
+        <v>4050</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="9">
+        <v>150</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="6"/>
+        <v>1890</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="9">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" s="9">
+        <f>C32*B32</f>
+        <v>100</v>
+      </c>
+      <c r="E32" s="8">
+        <f>$D32*E$26</f>
+        <v>315</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="G32" s="8">
+        <f>$D32*G$26</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A24:G24"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <f>AND(A2,B2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <f>OR(A2,B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f>AND(A3,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D5" si="0">OR(A3,B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <f>AND(A4,B4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <f>AND(A5,B5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>